--- a/final/prediction_data_2022final5.xlsx
+++ b/final/prediction_data_2022final5.xlsx
@@ -510,13 +510,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>24.02581637486635</v>
+        <v>24.61926052846465</v>
       </c>
       <c r="D2" t="n">
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>55.71805597960338</v>
+        <v>55.08685614127894</v>
       </c>
       <c r="F2" t="n">
         <v>0.4908671225833796</v>
@@ -531,13 +531,13 @@
         <v>0.1015079209964726</v>
       </c>
       <c r="J2" t="n">
-        <v>8.237777641252357</v>
+        <v>9.452105500407701</v>
       </c>
       <c r="K2" t="n">
-        <v>8.237777641252357</v>
+        <v>9.452105500407701</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1070486005099154</v>
+        <v>0.1228285964680266</v>
       </c>
       <c r="M2" t="n">
         <v>1.074261828655888</v>
@@ -553,13 +553,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>22.99069845617517</v>
+        <v>23.39735697839228</v>
       </c>
       <c r="D3" t="n">
         <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>56.23264855257815</v>
+        <v>55.72038508144225</v>
       </c>
       <c r="F3" t="n">
         <v>0.5692508903317237</v>
@@ -574,13 +574,13 @@
         <v>0.09098198928705599</v>
       </c>
       <c r="J3" t="n">
-        <v>7.096897018586305</v>
+        <v>8.061893555748494</v>
       </c>
       <c r="K3" t="n">
-        <v>7.096897018586305</v>
+        <v>8.061893555748494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09418378618554617</v>
+        <v>0.1069903729639437</v>
       </c>
       <c r="M3" t="n">
         <v>1.063209470099628</v>
@@ -596,13 +596,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5667880957776</v>
+        <v>25.17959750183569</v>
       </c>
       <c r="D4" t="n">
         <v>60</v>
       </c>
       <c r="E4" t="n">
-        <v>53.84150318937115</v>
+        <v>53.01510514033063</v>
       </c>
       <c r="F4" t="n">
         <v>0.5675258646944341</v>
@@ -617,13 +617,13 @@
         <v>0.1733504243328257</v>
       </c>
       <c r="J4" t="n">
-        <v>10.80410204922364</v>
+        <v>12.25388584057084</v>
       </c>
       <c r="K4" t="n">
-        <v>10.80410204922364</v>
+        <v>12.25388584057084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1539624202657213</v>
+        <v>0.1746223714917343</v>
       </c>
       <c r="M4" t="n">
         <v>1.028840819255586</v>
@@ -639,13 +639,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>23.28562315873896</v>
+        <v>23.39666459486615</v>
       </c>
       <c r="D5" t="n">
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>54.32713377532375</v>
+        <v>54.13541269773455</v>
       </c>
       <c r="F5" t="n">
         <v>0.5685405600862644</v>
@@ -660,13 +660,13 @@
         <v>0.2939550137658593</v>
       </c>
       <c r="J5" t="n">
-        <v>7.787021293044679</v>
+        <v>8.050192687254274</v>
       </c>
       <c r="K5" t="n">
-        <v>7.787021293044679</v>
+        <v>8.050192687254274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1418216556169062</v>
+        <v>0.1466146825566362</v>
       </c>
       <c r="M5" t="n">
         <v>1.02155181165825</v>
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>25.57672197462595</v>
+        <v>25.94894455163989</v>
       </c>
       <c r="D6" t="n">
         <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>50.68813116349804</v>
+        <v>50.06660335004253</v>
       </c>
       <c r="F6" t="n">
         <v>0.4749135900498386</v>
@@ -703,13 +703,13 @@
         <v>0.3273575336241445</v>
       </c>
       <c r="J6" t="n">
-        <v>11.04042391509242</v>
+        <v>11.77732546042679</v>
       </c>
       <c r="K6" t="n">
-        <v>11.04042391509242</v>
+        <v>11.77732546042679</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2327967209125489</v>
+        <v>0.2483349162489366</v>
       </c>
       <c r="M6" t="n">
         <v>1.018793240613615</v>
@@ -725,13 +725,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>30.24132295181913</v>
+        <v>29.37525670728314</v>
       </c>
       <c r="D7" t="n">
         <v>60</v>
       </c>
       <c r="E7" t="n">
-        <v>45.13698770624303</v>
+        <v>46.39389106729365</v>
       </c>
       <c r="F7" t="n">
         <v>0.3572959674807635</v>
@@ -746,13 +746,13 @@
         <v>0.3949507666934691</v>
       </c>
       <c r="J7" t="n">
-        <v>15.25373981940182</v>
+        <v>13.96379425058526</v>
       </c>
       <c r="K7" t="n">
-        <v>15.25373981940182</v>
+        <v>13.96379425058526</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3715753073439241</v>
+        <v>0.3401527233176587</v>
       </c>
       <c r="M7" t="n">
         <v>1.04790363610928</v>
@@ -768,13 +768,13 @@
         <v>19.5</v>
       </c>
       <c r="C8" t="n">
-        <v>21.98367101838078</v>
+        <v>22.3901940284228</v>
       </c>
       <c r="D8" t="n">
         <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>50.08315079239797</v>
+        <v>49.60572591972456</v>
       </c>
       <c r="F8" t="n">
         <v>0.6188390752940969</v>
@@ -789,13 +789,13 @@
         <v>0.1260197768349648</v>
       </c>
       <c r="J8" t="n">
-        <v>6.408280191295428</v>
+        <v>7.457176495708755</v>
       </c>
       <c r="K8" t="n">
-        <v>7.65167784035275</v>
+        <v>8.904091338159709</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08707012560006082</v>
+        <v>0.1013216143365804</v>
       </c>
       <c r="M8" t="n">
         <v>0.935401238270443</v>
